--- a/timetabling_GA/results/HK1_CT03/TKB_Semester_Schedule.xlsx
+++ b/timetabling_GA/results/HK1_CT03/TKB_Semester_Schedule.xlsx
@@ -509,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -644,8 +644,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -657,8 +657,39 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R101
+GV: Võ Văn F</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>CL05</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
         <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
@@ -666,16 +697,7 @@
 GV: Hoàng Thị E</t>
         </is>
       </c>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>Tiếng Anh chuyên ngành
-(Lý thuyết)
-Phòng: R101
-GV: Võ Văn F</t>
-        </is>
-      </c>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -695,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -830,8 +852,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -843,8 +865,39 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R101
+GV: Võ Văn F</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>CL05</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
         <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
@@ -852,16 +905,7 @@
 GV: Hoàng Thị E</t>
         </is>
       </c>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>Tiếng Anh chuyên ngành
-(Lý thuyết)
-Phòng: R101
-GV: Võ Văn F</t>
-        </is>
-      </c>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -881,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1016,8 +1060,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -1029,8 +1073,39 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R101
+GV: Võ Văn F</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>CL05</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
         <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
@@ -1038,16 +1113,7 @@
 GV: Hoàng Thị E</t>
         </is>
       </c>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>Tiếng Anh chuyên ngành
-(Lý thuyết)
-Phòng: R101
-GV: Võ Văn F</t>
-        </is>
-      </c>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1067,7 +1133,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1202,8 +1268,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -1215,8 +1281,39 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R101
+GV: Võ Văn F</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>CL05</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
         <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
@@ -1224,16 +1321,7 @@
 GV: Hoàng Thị E</t>
         </is>
       </c>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>Tiếng Anh chuyên ngành
-(Lý thuyết)
-Phòng: R101
-GV: Võ Văn F</t>
-        </is>
-      </c>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1253,7 +1341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1388,8 +1476,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -1401,8 +1489,39 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R101
+GV: Võ Văn F</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>CL05</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
         <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
@@ -1410,16 +1529,7 @@
 GV: Hoàng Thị E</t>
         </is>
       </c>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>Tiếng Anh chuyên ngành
-(Lý thuyết)
-Phòng: R101
-GV: Võ Văn F</t>
-        </is>
-      </c>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1439,7 +1549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1574,8 +1684,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -1587,8 +1697,39 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R101
+GV: Võ Văn F</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>CL05</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
         <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
@@ -1596,16 +1737,7 @@
 GV: Hoàng Thị E</t>
         </is>
       </c>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>Tiếng Anh chuyên ngành
-(Lý thuyết)
-Phòng: R101
-GV: Võ Văn F</t>
-        </is>
-      </c>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1625,7 +1757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1760,8 +1892,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -1773,8 +1905,39 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R101
+GV: Võ Văn F</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>CL05</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
         <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
@@ -1782,16 +1945,7 @@
 GV: Hoàng Thị E</t>
         </is>
       </c>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>Tiếng Anh chuyên ngành
-(Lý thuyết)
-Phòng: R101
-GV: Võ Văn F</t>
-        </is>
-      </c>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1811,7 +1965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1946,8 +2100,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -1959,8 +2113,39 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R101
+GV: Võ Văn F</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>CL05</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
         <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
@@ -1968,16 +2153,7 @@
 GV: Hoàng Thị E</t>
         </is>
       </c>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>Tiếng Anh chuyên ngành
-(Lý thuyết)
-Phòng: R101
-GV: Võ Văn F</t>
-        </is>
-      </c>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1997,7 +2173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2132,8 +2308,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -2145,8 +2321,39 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R101
+GV: Võ Văn F</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>CL05</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
         <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
@@ -2154,16 +2361,7 @@
 GV: Hoàng Thị E</t>
         </is>
       </c>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>Tiếng Anh chuyên ngành
-(Lý thuyết)
-Phòng: R101
-GV: Võ Văn F</t>
-        </is>
-      </c>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2183,7 +2381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2318,8 +2516,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -2331,8 +2529,39 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R101
+GV: Võ Văn F</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>CL05</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
         <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
@@ -2340,16 +2569,7 @@
 GV: Hoàng Thị E</t>
         </is>
       </c>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>Tiếng Anh chuyên ngành
-(Lý thuyết)
-Phòng: R101
-GV: Võ Văn F</t>
-        </is>
-      </c>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2369,7 +2589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2504,8 +2724,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -2517,8 +2737,39 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R101
+GV: Võ Văn F</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>CL05</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
         <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
@@ -2526,16 +2777,7 @@
 GV: Hoàng Thị E</t>
         </is>
       </c>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>Tiếng Anh chuyên ngành
-(Lý thuyết)
-Phòng: R101
-GV: Võ Văn F</t>
-        </is>
-      </c>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2555,7 +2797,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2690,8 +2932,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -2703,8 +2945,39 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R101
+GV: Võ Văn F</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>CL05</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
         <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
@@ -2712,16 +2985,7 @@
 GV: Hoàng Thị E</t>
         </is>
       </c>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>Tiếng Anh chuyên ngành
-(Lý thuyết)
-Phòng: R101
-GV: Võ Văn F</t>
-        </is>
-      </c>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2741,7 +3005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2876,8 +3140,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -2889,8 +3153,39 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R101
+GV: Võ Văn F</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>CL05</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
         <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
@@ -2898,16 +3193,7 @@
 GV: Hoàng Thị E</t>
         </is>
       </c>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>Tiếng Anh chuyên ngành
-(Lý thuyết)
-Phòng: R101
-GV: Võ Văn F</t>
-        </is>
-      </c>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2927,7 +3213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3062,8 +3348,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -3075,8 +3361,39 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R101
+GV: Võ Văn F</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>CL05</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
         <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
@@ -3084,16 +3401,7 @@
 GV: Hoàng Thị E</t>
         </is>
       </c>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>Tiếng Anh chuyên ngành
-(Lý thuyết)
-Phòng: R101
-GV: Võ Văn F</t>
-        </is>
-      </c>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3113,7 +3421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3248,8 +3556,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -3261,8 +3569,39 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R101
+GV: Võ Văn F</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>CL05</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
         <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
@@ -3270,16 +3609,7 @@
 GV: Hoàng Thị E</t>
         </is>
       </c>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>Tiếng Anh chuyên ngành
-(Lý thuyết)
-Phòng: R101
-GV: Võ Văn F</t>
-        </is>
-      </c>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/timetabling_GA/results/HK1_CT03/TKB_Semester_Schedule.xlsx
+++ b/timetabling_GA/results/HK1_CT03/TKB_Semester_Schedule.xlsx
@@ -89,7 +89,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -111,11 +111,44 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -144,6 +177,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -509,7 +543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -644,8 +678,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -657,29 +691,24 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Tiếng Anh chuyên ngành
-(Lý thuyết)
-Phòng: R101
-GV: Võ Văn F</t>
-        </is>
-      </c>
+      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R105
+GV: Võ Văn F</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL05</t>
+          <t>CL10</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -691,18 +720,77 @@
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="9" t="inlineStr">
         <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R102
+GV: Võ Văn F</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>CL05</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
-Phòng: R101
+Phòng: R103
 GV: Hoàng Thị E</t>
         </is>
       </c>
-      <c r="I10" s="8" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="8" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="inlineStr">
+        <is>
+          <t>CL10</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Kỹ năng mềm
+(Lý thuyết)
+Phòng: R104
+GV: Ngô Văn I</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
@@ -717,7 +805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -852,8 +940,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -865,29 +953,24 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Tiếng Anh chuyên ngành
-(Lý thuyết)
-Phòng: R101
-GV: Võ Văn F</t>
-        </is>
-      </c>
+      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R105
+GV: Võ Văn F</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL05</t>
+          <t>CL10</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -899,18 +982,77 @@
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="9" t="inlineStr">
         <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R102
+GV: Võ Văn F</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>CL05</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
-Phòng: R101
+Phòng: R103
 GV: Hoàng Thị E</t>
         </is>
       </c>
-      <c r="I10" s="8" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="8" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="inlineStr">
+        <is>
+          <t>CL10</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Kỹ năng mềm
+(Lý thuyết)
+Phòng: R104
+GV: Ngô Văn I</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
@@ -925,7 +1067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1060,8 +1202,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -1073,29 +1215,24 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Tiếng Anh chuyên ngành
-(Lý thuyết)
-Phòng: R101
-GV: Võ Văn F</t>
-        </is>
-      </c>
+      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R105
+GV: Võ Văn F</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL05</t>
+          <t>CL10</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -1107,18 +1244,77 @@
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="9" t="inlineStr">
         <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R102
+GV: Võ Văn F</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>CL05</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
-Phòng: R101
+Phòng: R103
 GV: Hoàng Thị E</t>
         </is>
       </c>
-      <c r="I10" s="8" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="8" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="inlineStr">
+        <is>
+          <t>CL10</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Kỹ năng mềm
+(Lý thuyết)
+Phòng: R104
+GV: Ngô Văn I</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
@@ -1133,7 +1329,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1268,8 +1464,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -1281,29 +1477,24 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Tiếng Anh chuyên ngành
-(Lý thuyết)
-Phòng: R101
-GV: Võ Văn F</t>
-        </is>
-      </c>
+      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R105
+GV: Võ Văn F</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL05</t>
+          <t>CL10</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -1315,18 +1506,77 @@
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="9" t="inlineStr">
         <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R102
+GV: Võ Văn F</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>CL05</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
-Phòng: R101
+Phòng: R103
 GV: Hoàng Thị E</t>
         </is>
       </c>
-      <c r="I10" s="8" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="8" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="inlineStr">
+        <is>
+          <t>CL10</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Kỹ năng mềm
+(Lý thuyết)
+Phòng: R104
+GV: Ngô Văn I</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
@@ -1341,7 +1591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1476,8 +1726,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -1489,29 +1739,24 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Tiếng Anh chuyên ngành
-(Lý thuyết)
-Phòng: R101
-GV: Võ Văn F</t>
-        </is>
-      </c>
+      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R105
+GV: Võ Văn F</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL05</t>
+          <t>CL10</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -1523,18 +1768,77 @@
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="9" t="inlineStr">
         <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R102
+GV: Võ Văn F</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>CL05</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
-Phòng: R101
+Phòng: R103
 GV: Hoàng Thị E</t>
         </is>
       </c>
-      <c r="I10" s="8" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="8" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="inlineStr">
+        <is>
+          <t>CL10</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Kỹ năng mềm
+(Lý thuyết)
+Phòng: R104
+GV: Ngô Văn I</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
@@ -1549,7 +1853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1684,8 +1988,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -1697,29 +2001,24 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Tiếng Anh chuyên ngành
-(Lý thuyết)
-Phòng: R101
-GV: Võ Văn F</t>
-        </is>
-      </c>
+      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R105
+GV: Võ Văn F</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL05</t>
+          <t>CL10</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -1731,18 +2030,77 @@
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="9" t="inlineStr">
         <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R102
+GV: Võ Văn F</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>CL05</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
-Phòng: R101
+Phòng: R103
 GV: Hoàng Thị E</t>
         </is>
       </c>
-      <c r="I10" s="8" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="8" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="inlineStr">
+        <is>
+          <t>CL10</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Kỹ năng mềm
+(Lý thuyết)
+Phòng: R104
+GV: Ngô Văn I</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
@@ -1757,7 +2115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1892,8 +2250,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -1905,29 +2263,24 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Tiếng Anh chuyên ngành
-(Lý thuyết)
-Phòng: R101
-GV: Võ Văn F</t>
-        </is>
-      </c>
+      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R105
+GV: Võ Văn F</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL05</t>
+          <t>CL10</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -1939,18 +2292,77 @@
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="9" t="inlineStr">
         <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R102
+GV: Võ Văn F</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>CL05</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
-Phòng: R101
+Phòng: R103
 GV: Hoàng Thị E</t>
         </is>
       </c>
-      <c r="I10" s="8" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="8" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="inlineStr">
+        <is>
+          <t>CL10</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Kỹ năng mềm
+(Lý thuyết)
+Phòng: R104
+GV: Ngô Văn I</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
@@ -1965,7 +2377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2100,8 +2512,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -2113,29 +2525,24 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Tiếng Anh chuyên ngành
-(Lý thuyết)
-Phòng: R101
-GV: Võ Văn F</t>
-        </is>
-      </c>
+      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R105
+GV: Võ Văn F</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL05</t>
+          <t>CL10</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -2147,18 +2554,77 @@
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="9" t="inlineStr">
         <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R102
+GV: Võ Văn F</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>CL05</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
-Phòng: R101
+Phòng: R103
 GV: Hoàng Thị E</t>
         </is>
       </c>
-      <c r="I10" s="8" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="8" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="inlineStr">
+        <is>
+          <t>CL10</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Kỹ năng mềm
+(Lý thuyết)
+Phòng: R104
+GV: Ngô Văn I</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
@@ -2173,7 +2639,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2308,8 +2774,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -2321,29 +2787,24 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Tiếng Anh chuyên ngành
-(Lý thuyết)
-Phòng: R101
-GV: Võ Văn F</t>
-        </is>
-      </c>
+      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R105
+GV: Võ Văn F</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL05</t>
+          <t>CL10</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -2355,18 +2816,77 @@
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="9" t="inlineStr">
         <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R102
+GV: Võ Văn F</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>CL05</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
-Phòng: R101
+Phòng: R103
 GV: Hoàng Thị E</t>
         </is>
       </c>
-      <c r="I10" s="8" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="8" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="inlineStr">
+        <is>
+          <t>CL10</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Kỹ năng mềm
+(Lý thuyết)
+Phòng: R104
+GV: Ngô Văn I</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
@@ -2381,7 +2901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2516,8 +3036,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -2529,29 +3049,24 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Tiếng Anh chuyên ngành
-(Lý thuyết)
-Phòng: R101
-GV: Võ Văn F</t>
-        </is>
-      </c>
+      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R105
+GV: Võ Văn F</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL05</t>
+          <t>CL10</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -2563,18 +3078,77 @@
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="9" t="inlineStr">
         <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R102
+GV: Võ Văn F</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>CL05</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
-Phòng: R101
+Phòng: R103
 GV: Hoàng Thị E</t>
         </is>
       </c>
-      <c r="I10" s="8" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="8" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="inlineStr">
+        <is>
+          <t>CL10</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Kỹ năng mềm
+(Lý thuyết)
+Phòng: R104
+GV: Ngô Văn I</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
@@ -2589,7 +3163,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2724,8 +3298,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -2737,29 +3311,24 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Tiếng Anh chuyên ngành
-(Lý thuyết)
-Phòng: R101
-GV: Võ Văn F</t>
-        </is>
-      </c>
+      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R105
+GV: Võ Văn F</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL05</t>
+          <t>CL10</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -2771,18 +3340,77 @@
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="9" t="inlineStr">
         <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R102
+GV: Võ Văn F</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>CL05</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
-Phòng: R101
+Phòng: R103
 GV: Hoàng Thị E</t>
         </is>
       </c>
-      <c r="I10" s="8" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="8" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="inlineStr">
+        <is>
+          <t>CL10</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Kỹ năng mềm
+(Lý thuyết)
+Phòng: R104
+GV: Ngô Văn I</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
@@ -2797,7 +3425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2932,8 +3560,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -2945,29 +3573,24 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Tiếng Anh chuyên ngành
-(Lý thuyết)
-Phòng: R101
-GV: Võ Văn F</t>
-        </is>
-      </c>
+      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R105
+GV: Võ Văn F</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL05</t>
+          <t>CL10</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -2979,18 +3602,77 @@
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="9" t="inlineStr">
         <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R102
+GV: Võ Văn F</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>CL05</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
-Phòng: R101
+Phòng: R103
 GV: Hoàng Thị E</t>
         </is>
       </c>
-      <c r="I10" s="8" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="8" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="inlineStr">
+        <is>
+          <t>CL10</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Kỹ năng mềm
+(Lý thuyết)
+Phòng: R104
+GV: Ngô Văn I</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
@@ -3005,7 +3687,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3140,8 +3822,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -3153,29 +3835,24 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Tiếng Anh chuyên ngành
-(Lý thuyết)
-Phòng: R101
-GV: Võ Văn F</t>
-        </is>
-      </c>
+      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R105
+GV: Võ Văn F</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL05</t>
+          <t>CL10</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -3187,18 +3864,77 @@
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="9" t="inlineStr">
         <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R102
+GV: Võ Văn F</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>CL05</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
-Phòng: R101
+Phòng: R103
 GV: Hoàng Thị E</t>
         </is>
       </c>
-      <c r="I10" s="8" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="8" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="inlineStr">
+        <is>
+          <t>CL10</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Kỹ năng mềm
+(Lý thuyết)
+Phòng: R104
+GV: Ngô Văn I</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
@@ -3213,7 +3949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3348,8 +4084,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -3361,29 +4097,24 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Tiếng Anh chuyên ngành
-(Lý thuyết)
-Phòng: R101
-GV: Võ Văn F</t>
-        </is>
-      </c>
+      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R105
+GV: Võ Văn F</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL05</t>
+          <t>CL10</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -3395,18 +4126,77 @@
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="9" t="inlineStr">
         <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R102
+GV: Võ Văn F</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>CL05</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
-Phòng: R101
+Phòng: R103
 GV: Hoàng Thị E</t>
         </is>
       </c>
-      <c r="I10" s="8" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="8" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="inlineStr">
+        <is>
+          <t>CL10</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Kỹ năng mềm
+(Lý thuyết)
+Phòng: R104
+GV: Ngô Văn I</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
@@ -3421,7 +4211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3556,8 +4346,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -3569,29 +4359,24 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Tiếng Anh chuyên ngành
-(Lý thuyết)
-Phòng: R101
-GV: Võ Văn F</t>
-        </is>
-      </c>
+      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R105
+GV: Võ Văn F</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL05</t>
+          <t>CL10</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -3603,18 +4388,77 @@
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="9" t="inlineStr">
         <is>
+          <t>Tiếng Anh chuyên ngành
+(Lý thuyết)
+Phòng: R102
+GV: Võ Văn F</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>CL05</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
-Phòng: R101
+Phòng: R103
 GV: Hoàng Thị E</t>
         </is>
       </c>
-      <c r="I10" s="8" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="8" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="inlineStr">
+        <is>
+          <t>CL10</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Kỹ năng mềm
+(Lý thuyết)
+Phòng: R104
+GV: Ngô Văn I</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>

--- a/timetabling_GA/results/HK1_CT03/TKB_Semester_Schedule.xlsx
+++ b/timetabling_GA/results/HK1_CT03/TKB_Semester_Schedule.xlsx
@@ -89,7 +89,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -111,44 +111,11 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -177,7 +144,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -543,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,7 +657,14 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Kỹ năng mềm
+(Lý thuyết)
+Phòng: R103
+GV: Hoàng Thị E</t>
+        </is>
+      </c>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
@@ -700,12 +673,17 @@
           <t>Tiếng Anh chuyên ngành
 (Lý thuyết)
 Phòng: R105
-GV: Võ Văn F</t>
+GV: Hoàng Thị E</t>
         </is>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="10" t="n"/>
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
           <t>CL10</t>
@@ -722,8 +700,8 @@
         <is>
           <t>Tiếng Anh chuyên ngành
 (Lý thuyết)
-Phòng: R102
-GV: Võ Văn F</t>
+Phòng: R103
+GV: Hoàng Thị E</t>
         </is>
       </c>
       <c r="I10" s="8" t="inlineStr"/>
@@ -731,13 +709,13 @@
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL05</t>
+          <t>CL10</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
@@ -746,51 +724,21 @@
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
         <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
-Phòng: R103
-GV: Hoàng Thị E</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr"/>
+Phòng: R101
+GV: Hoàng Thị E</t>
+        </is>
+      </c>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B12" s="8" t="inlineStr">
-        <is>
-          <t>CL10</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Kỹ năng mềm
-(Lý thuyết)
-Phòng: R104
-GV: Ngô Văn I</t>
-        </is>
-      </c>
-      <c r="I12" s="8" t="inlineStr"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
@@ -805,7 +753,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -953,7 +901,14 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Kỹ năng mềm
+(Lý thuyết)
+Phòng: R103
+GV: Hoàng Thị E</t>
+        </is>
+      </c>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
@@ -962,12 +917,17 @@
           <t>Tiếng Anh chuyên ngành
 (Lý thuyết)
 Phòng: R105
-GV: Võ Văn F</t>
+GV: Hoàng Thị E</t>
         </is>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="10" t="n"/>
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
           <t>CL10</t>
@@ -984,8 +944,8 @@
         <is>
           <t>Tiếng Anh chuyên ngành
 (Lý thuyết)
-Phòng: R102
-GV: Võ Văn F</t>
+Phòng: R103
+GV: Hoàng Thị E</t>
         </is>
       </c>
       <c r="I10" s="8" t="inlineStr"/>
@@ -993,13 +953,13 @@
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL05</t>
+          <t>CL10</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
@@ -1008,51 +968,21 @@
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
         <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
-Phòng: R103
-GV: Hoàng Thị E</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr"/>
+Phòng: R101
+GV: Hoàng Thị E</t>
+        </is>
+      </c>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B12" s="8" t="inlineStr">
-        <is>
-          <t>CL10</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Kỹ năng mềm
-(Lý thuyết)
-Phòng: R104
-GV: Ngô Văn I</t>
-        </is>
-      </c>
-      <c r="I12" s="8" t="inlineStr"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
@@ -1067,7 +997,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1215,7 +1145,14 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Kỹ năng mềm
+(Lý thuyết)
+Phòng: R103
+GV: Hoàng Thị E</t>
+        </is>
+      </c>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
@@ -1224,12 +1161,17 @@
           <t>Tiếng Anh chuyên ngành
 (Lý thuyết)
 Phòng: R105
-GV: Võ Văn F</t>
+GV: Hoàng Thị E</t>
         </is>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="10" t="n"/>
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
           <t>CL10</t>
@@ -1246,8 +1188,8 @@
         <is>
           <t>Tiếng Anh chuyên ngành
 (Lý thuyết)
-Phòng: R102
-GV: Võ Văn F</t>
+Phòng: R103
+GV: Hoàng Thị E</t>
         </is>
       </c>
       <c r="I10" s="8" t="inlineStr"/>
@@ -1255,13 +1197,13 @@
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL05</t>
+          <t>CL10</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
@@ -1270,51 +1212,21 @@
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
         <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
-Phòng: R103
-GV: Hoàng Thị E</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr"/>
+Phòng: R101
+GV: Hoàng Thị E</t>
+        </is>
+      </c>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B12" s="8" t="inlineStr">
-        <is>
-          <t>CL10</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Kỹ năng mềm
-(Lý thuyết)
-Phòng: R104
-GV: Ngô Văn I</t>
-        </is>
-      </c>
-      <c r="I12" s="8" t="inlineStr"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
@@ -1329,7 +1241,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1477,7 +1389,14 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Kỹ năng mềm
+(Lý thuyết)
+Phòng: R103
+GV: Hoàng Thị E</t>
+        </is>
+      </c>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
@@ -1486,12 +1405,17 @@
           <t>Tiếng Anh chuyên ngành
 (Lý thuyết)
 Phòng: R105
-GV: Võ Văn F</t>
+GV: Hoàng Thị E</t>
         </is>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="10" t="n"/>
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
           <t>CL10</t>
@@ -1508,8 +1432,8 @@
         <is>
           <t>Tiếng Anh chuyên ngành
 (Lý thuyết)
-Phòng: R102
-GV: Võ Văn F</t>
+Phòng: R103
+GV: Hoàng Thị E</t>
         </is>
       </c>
       <c r="I10" s="8" t="inlineStr"/>
@@ -1517,13 +1441,13 @@
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL05</t>
+          <t>CL10</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
@@ -1532,51 +1456,21 @@
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
         <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
-Phòng: R103
-GV: Hoàng Thị E</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr"/>
+Phòng: R101
+GV: Hoàng Thị E</t>
+        </is>
+      </c>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B12" s="8" t="inlineStr">
-        <is>
-          <t>CL10</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Kỹ năng mềm
-(Lý thuyết)
-Phòng: R104
-GV: Ngô Văn I</t>
-        </is>
-      </c>
-      <c r="I12" s="8" t="inlineStr"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
@@ -1591,7 +1485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1739,7 +1633,14 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Kỹ năng mềm
+(Lý thuyết)
+Phòng: R103
+GV: Hoàng Thị E</t>
+        </is>
+      </c>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
@@ -1748,12 +1649,17 @@
           <t>Tiếng Anh chuyên ngành
 (Lý thuyết)
 Phòng: R105
-GV: Võ Văn F</t>
+GV: Hoàng Thị E</t>
         </is>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="10" t="n"/>
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
           <t>CL10</t>
@@ -1770,8 +1676,8 @@
         <is>
           <t>Tiếng Anh chuyên ngành
 (Lý thuyết)
-Phòng: R102
-GV: Võ Văn F</t>
+Phòng: R103
+GV: Hoàng Thị E</t>
         </is>
       </c>
       <c r="I10" s="8" t="inlineStr"/>
@@ -1779,13 +1685,13 @@
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL05</t>
+          <t>CL10</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
@@ -1794,51 +1700,21 @@
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
         <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
-Phòng: R103
-GV: Hoàng Thị E</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr"/>
+Phòng: R101
+GV: Hoàng Thị E</t>
+        </is>
+      </c>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B12" s="8" t="inlineStr">
-        <is>
-          <t>CL10</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Kỹ năng mềm
-(Lý thuyết)
-Phòng: R104
-GV: Ngô Văn I</t>
-        </is>
-      </c>
-      <c r="I12" s="8" t="inlineStr"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
@@ -1853,7 +1729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2001,7 +1877,14 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Kỹ năng mềm
+(Lý thuyết)
+Phòng: R103
+GV: Hoàng Thị E</t>
+        </is>
+      </c>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
@@ -2010,12 +1893,17 @@
           <t>Tiếng Anh chuyên ngành
 (Lý thuyết)
 Phòng: R105
-GV: Võ Văn F</t>
+GV: Hoàng Thị E</t>
         </is>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="10" t="n"/>
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
           <t>CL10</t>
@@ -2032,8 +1920,8 @@
         <is>
           <t>Tiếng Anh chuyên ngành
 (Lý thuyết)
-Phòng: R102
-GV: Võ Văn F</t>
+Phòng: R103
+GV: Hoàng Thị E</t>
         </is>
       </c>
       <c r="I10" s="8" t="inlineStr"/>
@@ -2041,13 +1929,13 @@
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL05</t>
+          <t>CL10</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
@@ -2056,51 +1944,21 @@
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
         <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
-Phòng: R103
-GV: Hoàng Thị E</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr"/>
+Phòng: R101
+GV: Hoàng Thị E</t>
+        </is>
+      </c>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B12" s="8" t="inlineStr">
-        <is>
-          <t>CL10</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Kỹ năng mềm
-(Lý thuyết)
-Phòng: R104
-GV: Ngô Văn I</t>
-        </is>
-      </c>
-      <c r="I12" s="8" t="inlineStr"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
@@ -2115,7 +1973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2263,7 +2121,14 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Kỹ năng mềm
+(Lý thuyết)
+Phòng: R103
+GV: Hoàng Thị E</t>
+        </is>
+      </c>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
@@ -2272,12 +2137,17 @@
           <t>Tiếng Anh chuyên ngành
 (Lý thuyết)
 Phòng: R105
-GV: Võ Văn F</t>
+GV: Hoàng Thị E</t>
         </is>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="10" t="n"/>
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
           <t>CL10</t>
@@ -2294,8 +2164,8 @@
         <is>
           <t>Tiếng Anh chuyên ngành
 (Lý thuyết)
-Phòng: R102
-GV: Võ Văn F</t>
+Phòng: R103
+GV: Hoàng Thị E</t>
         </is>
       </c>
       <c r="I10" s="8" t="inlineStr"/>
@@ -2303,13 +2173,13 @@
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL05</t>
+          <t>CL10</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
@@ -2318,51 +2188,21 @@
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
         <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
-Phòng: R103
-GV: Hoàng Thị E</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr"/>
+Phòng: R101
+GV: Hoàng Thị E</t>
+        </is>
+      </c>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B12" s="8" t="inlineStr">
-        <is>
-          <t>CL10</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Kỹ năng mềm
-(Lý thuyết)
-Phòng: R104
-GV: Ngô Văn I</t>
-        </is>
-      </c>
-      <c r="I12" s="8" t="inlineStr"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
@@ -2377,7 +2217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2525,7 +2365,14 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Kỹ năng mềm
+(Lý thuyết)
+Phòng: R103
+GV: Hoàng Thị E</t>
+        </is>
+      </c>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
@@ -2534,12 +2381,17 @@
           <t>Tiếng Anh chuyên ngành
 (Lý thuyết)
 Phòng: R105
-GV: Võ Văn F</t>
+GV: Hoàng Thị E</t>
         </is>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="10" t="n"/>
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
           <t>CL10</t>
@@ -2556,8 +2408,8 @@
         <is>
           <t>Tiếng Anh chuyên ngành
 (Lý thuyết)
-Phòng: R102
-GV: Võ Văn F</t>
+Phòng: R103
+GV: Hoàng Thị E</t>
         </is>
       </c>
       <c r="I10" s="8" t="inlineStr"/>
@@ -2565,13 +2417,13 @@
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL05</t>
+          <t>CL10</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
@@ -2580,51 +2432,21 @@
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
         <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
-Phòng: R103
-GV: Hoàng Thị E</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr"/>
+Phòng: R101
+GV: Hoàng Thị E</t>
+        </is>
+      </c>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B12" s="8" t="inlineStr">
-        <is>
-          <t>CL10</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Kỹ năng mềm
-(Lý thuyết)
-Phòng: R104
-GV: Ngô Văn I</t>
-        </is>
-      </c>
-      <c r="I12" s="8" t="inlineStr"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
@@ -2639,7 +2461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2787,7 +2609,14 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Kỹ năng mềm
+(Lý thuyết)
+Phòng: R103
+GV: Hoàng Thị E</t>
+        </is>
+      </c>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
@@ -2796,12 +2625,17 @@
           <t>Tiếng Anh chuyên ngành
 (Lý thuyết)
 Phòng: R105
-GV: Võ Văn F</t>
+GV: Hoàng Thị E</t>
         </is>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="10" t="n"/>
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
           <t>CL10</t>
@@ -2818,8 +2652,8 @@
         <is>
           <t>Tiếng Anh chuyên ngành
 (Lý thuyết)
-Phòng: R102
-GV: Võ Văn F</t>
+Phòng: R103
+GV: Hoàng Thị E</t>
         </is>
       </c>
       <c r="I10" s="8" t="inlineStr"/>
@@ -2827,13 +2661,13 @@
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL05</t>
+          <t>CL10</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
@@ -2842,51 +2676,21 @@
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
         <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
-Phòng: R103
-GV: Hoàng Thị E</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr"/>
+Phòng: R101
+GV: Hoàng Thị E</t>
+        </is>
+      </c>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B12" s="8" t="inlineStr">
-        <is>
-          <t>CL10</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Kỹ năng mềm
-(Lý thuyết)
-Phòng: R104
-GV: Ngô Văn I</t>
-        </is>
-      </c>
-      <c r="I12" s="8" t="inlineStr"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
@@ -2901,7 +2705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3049,7 +2853,14 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Kỹ năng mềm
+(Lý thuyết)
+Phòng: R103
+GV: Hoàng Thị E</t>
+        </is>
+      </c>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
@@ -3058,12 +2869,17 @@
           <t>Tiếng Anh chuyên ngành
 (Lý thuyết)
 Phòng: R105
-GV: Võ Văn F</t>
+GV: Hoàng Thị E</t>
         </is>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="10" t="n"/>
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
           <t>CL10</t>
@@ -3080,8 +2896,8 @@
         <is>
           <t>Tiếng Anh chuyên ngành
 (Lý thuyết)
-Phòng: R102
-GV: Võ Văn F</t>
+Phòng: R103
+GV: Hoàng Thị E</t>
         </is>
       </c>
       <c r="I10" s="8" t="inlineStr"/>
@@ -3089,13 +2905,13 @@
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL05</t>
+          <t>CL10</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
@@ -3104,51 +2920,21 @@
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
         <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
-Phòng: R103
-GV: Hoàng Thị E</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr"/>
+Phòng: R101
+GV: Hoàng Thị E</t>
+        </is>
+      </c>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B12" s="8" t="inlineStr">
-        <is>
-          <t>CL10</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Kỹ năng mềm
-(Lý thuyết)
-Phòng: R104
-GV: Ngô Văn I</t>
-        </is>
-      </c>
-      <c r="I12" s="8" t="inlineStr"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
@@ -3163,7 +2949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3311,7 +3097,14 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Kỹ năng mềm
+(Lý thuyết)
+Phòng: R103
+GV: Hoàng Thị E</t>
+        </is>
+      </c>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
@@ -3320,12 +3113,17 @@
           <t>Tiếng Anh chuyên ngành
 (Lý thuyết)
 Phòng: R105
-GV: Võ Văn F</t>
+GV: Hoàng Thị E</t>
         </is>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="10" t="n"/>
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
           <t>CL10</t>
@@ -3342,8 +3140,8 @@
         <is>
           <t>Tiếng Anh chuyên ngành
 (Lý thuyết)
-Phòng: R102
-GV: Võ Văn F</t>
+Phòng: R103
+GV: Hoàng Thị E</t>
         </is>
       </c>
       <c r="I10" s="8" t="inlineStr"/>
@@ -3351,13 +3149,13 @@
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL05</t>
+          <t>CL10</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
@@ -3366,51 +3164,21 @@
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
         <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
-Phòng: R103
-GV: Hoàng Thị E</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr"/>
+Phòng: R101
+GV: Hoàng Thị E</t>
+        </is>
+      </c>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B12" s="8" t="inlineStr">
-        <is>
-          <t>CL10</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Kỹ năng mềm
-(Lý thuyết)
-Phòng: R104
-GV: Ngô Văn I</t>
-        </is>
-      </c>
-      <c r="I12" s="8" t="inlineStr"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
@@ -3425,7 +3193,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3573,7 +3341,14 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Kỹ năng mềm
+(Lý thuyết)
+Phòng: R103
+GV: Hoàng Thị E</t>
+        </is>
+      </c>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
@@ -3582,12 +3357,17 @@
           <t>Tiếng Anh chuyên ngành
 (Lý thuyết)
 Phòng: R105
-GV: Võ Văn F</t>
+GV: Hoàng Thị E</t>
         </is>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="10" t="n"/>
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
           <t>CL10</t>
@@ -3604,8 +3384,8 @@
         <is>
           <t>Tiếng Anh chuyên ngành
 (Lý thuyết)
-Phòng: R102
-GV: Võ Văn F</t>
+Phòng: R103
+GV: Hoàng Thị E</t>
         </is>
       </c>
       <c r="I10" s="8" t="inlineStr"/>
@@ -3613,13 +3393,13 @@
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL05</t>
+          <t>CL10</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
@@ -3628,51 +3408,21 @@
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
         <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
-Phòng: R103
-GV: Hoàng Thị E</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr"/>
+Phòng: R101
+GV: Hoàng Thị E</t>
+        </is>
+      </c>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B12" s="8" t="inlineStr">
-        <is>
-          <t>CL10</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Kỹ năng mềm
-(Lý thuyết)
-Phòng: R104
-GV: Ngô Văn I</t>
-        </is>
-      </c>
-      <c r="I12" s="8" t="inlineStr"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
@@ -3687,7 +3437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3835,7 +3585,14 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Kỹ năng mềm
+(Lý thuyết)
+Phòng: R103
+GV: Hoàng Thị E</t>
+        </is>
+      </c>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
@@ -3844,12 +3601,17 @@
           <t>Tiếng Anh chuyên ngành
 (Lý thuyết)
 Phòng: R105
-GV: Võ Văn F</t>
+GV: Hoàng Thị E</t>
         </is>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="10" t="n"/>
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
           <t>CL10</t>
@@ -3866,8 +3628,8 @@
         <is>
           <t>Tiếng Anh chuyên ngành
 (Lý thuyết)
-Phòng: R102
-GV: Võ Văn F</t>
+Phòng: R103
+GV: Hoàng Thị E</t>
         </is>
       </c>
       <c r="I10" s="8" t="inlineStr"/>
@@ -3875,13 +3637,13 @@
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL05</t>
+          <t>CL10</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
@@ -3890,51 +3652,21 @@
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
         <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
-Phòng: R103
-GV: Hoàng Thị E</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr"/>
+Phòng: R101
+GV: Hoàng Thị E</t>
+        </is>
+      </c>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B12" s="8" t="inlineStr">
-        <is>
-          <t>CL10</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Kỹ năng mềm
-(Lý thuyết)
-Phòng: R104
-GV: Ngô Văn I</t>
-        </is>
-      </c>
-      <c r="I12" s="8" t="inlineStr"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
@@ -3949,7 +3681,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4097,7 +3829,14 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Kỹ năng mềm
+(Lý thuyết)
+Phòng: R103
+GV: Hoàng Thị E</t>
+        </is>
+      </c>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
@@ -4106,12 +3845,17 @@
           <t>Tiếng Anh chuyên ngành
 (Lý thuyết)
 Phòng: R105
-GV: Võ Văn F</t>
+GV: Hoàng Thị E</t>
         </is>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="10" t="n"/>
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
           <t>CL10</t>
@@ -4128,8 +3872,8 @@
         <is>
           <t>Tiếng Anh chuyên ngành
 (Lý thuyết)
-Phòng: R102
-GV: Võ Văn F</t>
+Phòng: R103
+GV: Hoàng Thị E</t>
         </is>
       </c>
       <c r="I10" s="8" t="inlineStr"/>
@@ -4137,13 +3881,13 @@
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL05</t>
+          <t>CL10</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
@@ -4152,51 +3896,21 @@
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
         <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
-Phòng: R103
-GV: Hoàng Thị E</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr"/>
+Phòng: R101
+GV: Hoàng Thị E</t>
+        </is>
+      </c>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B12" s="8" t="inlineStr">
-        <is>
-          <t>CL10</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Kỹ năng mềm
-(Lý thuyết)
-Phòng: R104
-GV: Ngô Văn I</t>
-        </is>
-      </c>
-      <c r="I12" s="8" t="inlineStr"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
@@ -4211,7 +3925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4359,7 +4073,14 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Kỹ năng mềm
+(Lý thuyết)
+Phòng: R103
+GV: Hoàng Thị E</t>
+        </is>
+      </c>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
@@ -4368,12 +4089,17 @@
           <t>Tiếng Anh chuyên ngành
 (Lý thuyết)
 Phòng: R105
-GV: Võ Văn F</t>
+GV: Hoàng Thị E</t>
         </is>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="10" t="n"/>
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
           <t>CL10</t>
@@ -4390,8 +4116,8 @@
         <is>
           <t>Tiếng Anh chuyên ngành
 (Lý thuyết)
-Phòng: R102
-GV: Võ Văn F</t>
+Phòng: R103
+GV: Hoàng Thị E</t>
         </is>
       </c>
       <c r="I10" s="8" t="inlineStr"/>
@@ -4399,13 +4125,13 @@
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL05</t>
+          <t>CL10</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
@@ -4414,51 +4140,21 @@
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
         <is>
           <t>Kỹ năng mềm
 (Lý thuyết)
-Phòng: R103
-GV: Hoàng Thị E</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr"/>
+Phòng: R101
+GV: Hoàng Thị E</t>
+        </is>
+      </c>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B12" s="8" t="inlineStr">
-        <is>
-          <t>CL10</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Kỹ năng mềm
-(Lý thuyết)
-Phòng: R104
-GV: Ngô Văn I</t>
-        </is>
-      </c>
-      <c r="I12" s="8" t="inlineStr"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
